--- a/copilot-benfords-law-demo.xlsx
+++ b/copilot-benfords-law-demo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29307"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/copilot-demo-files/copilot-advanced-analytics/benfords-law/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{5DBF7CCE-69F2-4622-AC4C-E4A198510208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD81BEE4-9E55-4A85-8167-8CF98F2E6495}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35134ECB-0C79-426A-A1B3-BCB77E1F3DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="16826" windowHeight="11280" firstSheet="1" activeTab="1" xr2:uid="{7E613045-90AB-4BC0-9BE0-A54143805635}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{7E613045-90AB-4BC0-9BE0-A54143805635}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Analysis1" sheetId="4" r:id="rId2"/>
+    <sheet name="Analysis1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,7 +113,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -133,26 +133,25 @@
     </pythonScript>
     <pythonScript>
       <code>#Count of first digits (1-9) in GDP values
-# Drop rows with missing GDP values
+# Drop missing GDP values
 gdp_non_missing = country_gdp_df['gdp'].dropna()
 # Extract the first digit from each GDP value
-gdp_first_digits = gdp_non_missing.astype(str).str.replace('.', '', 1).str.lstrip('0').str[0]
+gdp_first_digits = gdp_non_missing.astype(str).str.replace('.', '', 1).str[0]
 # Count frequency of each digit from 1 to 9
-digit_counts = gdp_first_digits.value_counts().reindex(list('123456789'), fill_value=0)
-digit_counts</code>
+first_digit_counts = gdp_first_digits.value_counts().reindex(list(map(str, range(1,10))), fill_value=0)
+first_digit_counts</code>
     </pythonScript>
     <pythonScript>
-      <code>#Bar plot comparing observed first digit distribution to Benford's Law
+      <code>#Bar plot comparing observed and Benford's Law first digit distributions
 # Calculate observed percentage distribution
-observed_pct = digit_counts / digit_counts.sum()
+observed_pct = first_digit_counts / first_digit_counts.sum()
 # Calculate Benford's Law expected distribution for digits 1-9
-import numpy as np
 benford_pct = np.log10(1 + 1 / np.arange(1, 10))
 # Prepare DataFrame for plotting
 benford_df = pd.DataFrame({
-    'Observed': observed_pct.values,
+    'Observed': observed_pct,
     "Benford's Law": benford_pct
-}, index=list('123456789'))
+}, index=[str(i) for i in range(1, 10)])
 # Plot comparison
 plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
 benford_df.plot(kind='bar', figsize=(8,5))
@@ -164,36 +163,23 @@
 plt.show()</code>
     </pythonScript>
     <pythonScript>
-      <code>#Bar chart showing actual first-digit frequency versus Benford’s Law, with significant deviations highlighted.
-# Chart with highlighted deviations from Benford's Law
-# Calculate absolute deviation
-abs_deviation = (observed_pct - benford_pct).abs()
-# Set threshold for significant deviation (e.g., 0.05)
-sig_threshold = 0.05
-significant = abs_deviation &gt; sig_threshold
-# Plot
-plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
-fig, ax = plt.subplots(figsize=(8,5))
-ax.bar(benford_df.index, benford_df['Observed'], label='Observed', color='skyblue')
-ax.bar(benford_df.index, benford_df["Benford's Law"], label="Benford's Law", alpha=0.6, color='orange')
-# Highlight significant deviations
-for i, sig in enumerate(significant):
-    if sig:
-        ax.bar(benford_df.index[i], benford_df['Observed'][i], color='red', edgecolor='black')
-        ax.text(benford_df.index[i], benford_df['Observed'][i]+0.01, 'Deviation', ha='center', color='red', fontsize=9)
-ax.set_xlabel('First Digit')
-ax.set_ylabel('Proportion')
-ax.set_title('First Digit Frequency vs. Benford\'s Law (Significant Deviations Highlighted)')
-ax.legend()
-plt.tight_layout()
-plt.show()</code>
+      <code>#Chi-square test for deviation from Benford's Law
+from scipy.stats import chisquare
+# Observed counts
+observed_counts = first_digit_counts.values
+# Expected counts based on Benford's Law
+expected_proportions = np.log10(1 + 1 / np.arange(1, 10))
+expected_counts = expected_proportions * observed_counts.sum()
+# Chi-square test
+chi2_stat, p_value = chisquare(f_obs=observed_counts, f_exp=expected_counts)
+chi2_stat, p_value</code>
     </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="545">
   <si>
     <t>Iraq</t>
   </si>
@@ -1824,17 +1810,17 @@
     <t>Count of first digits (1-9) in GDP values</t>
   </si>
   <si>
-    <t>Bar plot comparing observed first digit distribution to Benford's Law</t>
-  </si>
-  <si>
-    <t>Bar chart showing actual first-digit frequency versus Benford’s Law, with significant deviations highlighted.</t>
+    <t>Bar plot comparing observed and Benford's Law first digit distributions</t>
+  </si>
+  <si>
+    <t>Chi-square test for deviation from Benford's Law</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,6 +1832,23 @@
       <sz val="24"/>
       <color rgb="FF156082"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1883,12 +1886,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1911,22 +1916,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>191451</xdr:colOff>
+      <xdr:colOff>134516</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" title="Bar plot comparing observed first digit distribution to Benford's Law">
+        <xdr:cNvPr id="2" name="Picture 1" title="Bar plot comparing observed and Benford's Law first digit distributions">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C0B8C6-2FD3-3719-3A0A-E23779040EDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63142A0E-3EE9-063F-06FA-0DF50A363F5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,62 +1952,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="7687734"/>
-          <a:ext cx="4695717" cy="2912533"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>191451</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" title="Bar chart showing actual first-digit frequency versus Benford’s Law, with significant deviations highlighted.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDC2A74-E9BE-6BB3-B835-0D8CFC0F6748}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A60"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="11379201"/>
-          <a:ext cx="4695717" cy="2912533"/>
+          <a:off x="0" y="7643813"/>
+          <a:ext cx="4668416" cy="2895600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,7 +2011,7 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
   <a r="12" c="4">
     <v t="s"/>
     <v t="s">Country Name</v>
@@ -2137,6 +2088,10 @@
     <v>790</v>
     <v>490</v>
   </a>
+  <a r="2">
+    <v>11.437883812045229</v>
+    <v>0.17810061147072773</v>
+  </a>
 </arrayData>
 </file>
 
@@ -2206,24 +2161,22 @@
   <rv s="3">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x490 at 0x7FA8875093A0&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x490 at 0x7F7D6B2E4260&gt;</v>
     <v>9</v>
     <v>3</v>
   </rv>
-  <rv s="4">
-    <v>1</v>
-    <v>9</v>
+  <rv s="1">
+    <v>3</v>
   </rv>
-  <rv s="5">
-    <v>Image</v>
-    <v>6</v>
+  <rv s="2">
+    <v>tuple</v>
+    <v>8</v>
     <v>11</v>
-    <v>8</v>
   </rv>
   <rv s="3">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=790x490 at 0x7FA887559280&gt;</v>
+    <v>&lt;class 'tuple'&gt;</v>
+    <v>tuple</v>
+    <v>(11.437883812045229, 0.17810061147072773)</v>
     <v>12</v>
     <v>3</v>
   </rv>
@@ -2265,7 +2218,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="7">
+  <spbData count="9">
     <spb s="0">
       <v>266</v>
       <v>3</v>
@@ -2297,12 +2250,21 @@
     <spb s="4">
       <v>2</v>
     </spb>
+    <spb s="5">
+      <v>2</v>
+      <v>1</v>
+      <v>tuple</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>7</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
   <s>
     <k n="drw" t="i"/>
     <k n="dcol" t="i"/>
@@ -2323,6 +2285,12 @@
   </s>
   <s>
     <k n="image" t="i"/>
+  </s>
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2352,7 +2320,6 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
 </richValueRels>
 </file>
 
@@ -2687,19 +2654,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D3B131-D5A2-407E-A931-C0B807157F13}">
   <dimension ref="A1:C270"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="60.17578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.64453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>466</v>
       </c>
@@ -2707,7 +2672,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2715,7 +2680,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>521</v>
       </c>
@@ -2726,7 +2691,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>383</v>
       </c>
@@ -2734,7 +2699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>392</v>
       </c>
@@ -2745,7 +2710,7 @@
         <v>1287676979450.7463</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -2753,7 +2718,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>513</v>
       </c>
@@ -2764,7 +2729,7 @@
         <v>670025655309.60327</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>229</v>
       </c>
@@ -2775,7 +2740,7 @@
         <v>80396942241.62326</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>145</v>
       </c>
@@ -2786,7 +2751,7 @@
         <v>27177735527.566666</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>245</v>
       </c>
@@ -2797,7 +2762,7 @@
         <v>4039844390.2254262</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -2808,7 +2773,7 @@
         <v>3704768275595.8428</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2819,7 +2784,7 @@
         <v>537078829135.46631</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -2830,7 +2795,7 @@
         <v>633266692533.68945</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2841,7 +2806,7 @@
         <v>25786585949.634609</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2849,7 +2814,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -2860,7 +2825,7 @@
         <v>2224814814.8148146</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -2871,7 +2836,7 @@
         <v>1752193307380.3433</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2882,7 +2847,7 @@
         <v>521642466921.74524</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>388</v>
       </c>
@@ -2893,7 +2858,7 @@
         <v>74315882352.941177</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>337</v>
       </c>
@@ -2904,7 +2869,7 @@
         <v>2162378759.3466973</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -2915,7 +2880,7 @@
         <v>664564181486.953</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>459</v>
       </c>
@@ -2926,7 +2891,7 @@
         <v>21482643720.274326</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -2937,7 +2902,7 @@
         <v>23250214909.539066</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2948,7 +2913,7 @@
         <v>450119424622.38922</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>445</v>
       </c>
@@ -2959,7 +2924,7 @@
         <v>112211952703.83142</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>260</v>
       </c>
@@ -2970,7 +2935,7 @@
         <v>47736702127.659576</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -2981,7 +2946,7 @@
         <v>15832800000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>280</v>
       </c>
@@ -2992,7 +2957,7 @@
         <v>28343394203.469421</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>432</v>
       </c>
@@ -3003,7 +2968,7 @@
         <v>75961865471.912933</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>227</v>
       </c>
@@ -3014,7 +2979,7 @@
         <v>3515783328.9107947</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>267</v>
       </c>
@@ -3025,7 +2990,7 @@
         <v>8980200000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3036,7 +3001,7 @@
         <v>49668296743.849495</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>435</v>
       </c>
@@ -3047,7 +3012,7 @@
         <v>2179412080828.5867</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>408</v>
       </c>
@@ -3058,7 +3023,7 @@
         <v>7165000000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>307</v>
       </c>
@@ -3069,7 +3034,7 @@
         <v>15463134387.20129</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>416</v>
       </c>
@@ -3077,7 +3042,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -3088,7 +3053,7 @@
         <v>19400774882.449486</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>134</v>
       </c>
@@ -3099,7 +3064,7 @@
         <v>2751544520.3791761</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -3110,7 +3075,7 @@
         <v>2241253230970.3394</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>314</v>
       </c>
@@ -3121,7 +3086,7 @@
         <v>2455559190577.3613</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>136</v>
       </c>
@@ -3132,7 +3097,7 @@
         <v>936564198048.51587</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>278</v>
       </c>
@@ -3140,7 +3105,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -3151,7 +3116,7 @@
         <v>330267137371.59229</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>363</v>
       </c>
@@ -3162,7 +3127,7 @@
         <v>18743803170827.164</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>500</v>
       </c>
@@ -3173,7 +3138,7 @@
         <v>86538413923.394287</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>536</v>
       </c>
@@ -3184,7 +3149,7 @@
         <v>51326764684.859528</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>355</v>
       </c>
@@ -3195,7 +3160,7 @@
         <v>70749355652.120728</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>276</v>
       </c>
@@ -3206,7 +3171,7 @@
         <v>15719985776.396574</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>405</v>
       </c>
@@ -3217,7 +3182,7 @@
         <v>418542042920.18939</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>255</v>
       </c>
@@ -3228,7 +3193,7 @@
         <v>1546164420.3244183</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>354</v>
       </c>
@@ -3239,7 +3204,7 @@
         <v>2767599017.4487433</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -3250,7 +3215,7 @@
         <v>95350423176.663971</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>243</v>
       </c>
@@ -3261,7 +3226,7 @@
         <v>91570798875.904831</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -3269,7 +3234,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>263</v>
       </c>
@@ -3277,7 +3242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>341</v>
       </c>
@@ -3285,7 +3250,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>317</v>
       </c>
@@ -3296,7 +3261,7 @@
         <v>36333022329.4981</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>247</v>
       </c>
@@ -3307,7 +3272,7 @@
         <v>345036675975.0473</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>343</v>
       </c>
@@ -3318,7 +3283,7 @@
         <v>4659929336890.624</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -3329,7 +3294,7 @@
         <v>4086402718.8683386</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>502</v>
       </c>
@@ -3340,7 +3305,7 @@
         <v>688881481.48148143</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>220</v>
       </c>
@@ -3351,7 +3316,7 @@
         <v>429457372071.86896</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>299</v>
       </c>
@@ -3362,7 +3327,7 @@
         <v>124282245638.56845</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>501</v>
       </c>
@@ -3373,7 +3338,7 @@
         <v>263619794506.7229</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -3384,7 +3349,7 @@
         <v>22260874526758.059</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>504</v>
       </c>
@@ -3395,7 +3360,7 @@
         <v>16091207060823.447</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>348</v>
       </c>
@@ -3406,7 +3371,7 @@
         <v>31882663454356.949</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -3417,7 +3382,7 @@
         <v>2421839057172.2222</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -3428,7 +3393,7 @@
         <v>29146936906252.238</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>174</v>
       </c>
@@ -3439,7 +3404,7 @@
         <v>124676074700</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>182</v>
       </c>
@@ -3450,7 +3415,7 @@
         <v>389059911003.56573</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -3461,7 +3426,7 @@
         <v>16406126934435.811</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>526</v>
       </c>
@@ -3469,7 +3434,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -3480,7 +3445,7 @@
         <v>1722745978335.156</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>371</v>
       </c>
@@ -3491,7 +3456,7 @@
         <v>42764929169.325775</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -3499,7 +3464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -3510,7 +3475,7 @@
         <v>19423319451330.301</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -3521,7 +3486,7 @@
         <v>1831822327104.3093</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -3532,7 +3497,7 @@
         <v>299835625550.78119</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -3543,7 +3508,7 @@
         <v>5840564072.7731342</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>268</v>
       </c>
@@ -3554,7 +3519,7 @@
         <v>3162079073495.7808</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>241</v>
       </c>
@@ -3562,7 +3527,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>273</v>
       </c>
@@ -3573,7 +3538,7 @@
         <v>471425099.488675</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>358</v>
       </c>
@@ -3584,7 +3549,7 @@
         <v>20867044935.672943</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>487</v>
       </c>
@@ -3595,7 +3560,7 @@
         <v>3643834188782.9146</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>454</v>
       </c>
@@ -3606,7 +3571,7 @@
         <v>33776141250.571564</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>122</v>
       </c>
@@ -3617,7 +3582,7 @@
         <v>82825288888.973389</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3625,7 +3590,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>420</v>
       </c>
@@ -3636,7 +3601,7 @@
         <v>25334307878.737022</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -3647,7 +3612,7 @@
         <v>2507519958.3485727</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>424</v>
       </c>
@@ -3658,7 +3623,7 @@
         <v>2119865935.2490857</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>469</v>
       </c>
@@ -3669,7 +3634,7 @@
         <v>12765777677.062155</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>503</v>
       </c>
@@ -3680,7 +3645,7 @@
         <v>257144811301.67261</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -3691,7 +3656,7 @@
         <v>1391435992.5925925</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>380</v>
       </c>
@@ -3699,7 +3664,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>186</v>
       </c>
@@ -3710,7 +3675,7 @@
         <v>113199586004.47662</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>530</v>
       </c>
@@ -3718,7 +3683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -3729,7 +3694,7 @@
         <v>24835899825.899281</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>246</v>
       </c>
@@ -3740,7 +3705,7 @@
         <v>71522995943824.234</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>191</v>
       </c>
@@ -3751,7 +3716,7 @@
         <v>407106738445.06921</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>399</v>
       </c>
@@ -3762,7 +3727,7 @@
         <v>37093565854.043678</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>496</v>
       </c>
@@ -3773,7 +3738,7 @@
         <v>1197816907955.8115</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>376</v>
       </c>
@@ -3784,7 +3749,7 @@
         <v>92526176108.620987</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -3795,7 +3760,7 @@
         <v>25224154990.794556</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -3806,7 +3771,7 @@
         <v>222904723252.1098</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>518</v>
       </c>
@@ -3817,7 +3782,7 @@
         <v>41102217227752.258</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>56</v>
       </c>
@@ -3828,7 +3793,7 @@
         <v>43993256154967.711</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>531</v>
       </c>
@@ -3839,7 +3804,7 @@
         <v>2894109836001.8286</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>360</v>
       </c>
@@ -3850,7 +3815,7 @@
         <v>1060004843955.222</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>334</v>
       </c>
@@ -3861,7 +3826,7 @@
         <v>1396300098190.9734</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>528</v>
       </c>
@@ -3872,7 +3837,7 @@
         <v>1834104992046.6067</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>212</v>
       </c>
@@ -3880,7 +3845,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>146</v>
       </c>
@@ -3891,7 +3856,7 @@
         <v>3912686168582.2144</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>375</v>
       </c>
@@ -3899,7 +3864,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>78</v>
       </c>
@@ -3910,7 +3875,7 @@
         <v>577389475009.92175</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>297</v>
       </c>
@@ -3921,7 +3886,7 @@
         <v>436906331671.85852</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -3932,7 +3897,7 @@
         <v>279641257615.38464</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3943,7 +3908,7 @@
         <v>33462807982.850002</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>344</v>
       </c>
@@ -3954,7 +3919,7 @@
         <v>540379921261.68097</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -3965,7 +3930,7 @@
         <v>2372774547793.1245</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>92</v>
       </c>
@@ -3976,7 +3941,7 @@
         <v>19930288337.027954</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>419</v>
       </c>
@@ -3987,7 +3952,7 @@
         <v>53352289577.46479</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>529</v>
       </c>
@@ -3998,7 +3963,7 @@
         <v>4026210821146.8076</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>60</v>
       </c>
@@ -4009,7 +3974,7 @@
         <v>288406138230.66876</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>533</v>
       </c>
@@ -4020,7 +3985,7 @@
         <v>124498691699.12495</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>332</v>
       </c>
@@ -4031,7 +3996,7 @@
         <v>17478259659.262497</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>491</v>
       </c>
@@ -4042,7 +4007,7 @@
         <v>46352647034.777466</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>461</v>
       </c>
@@ -4053,7 +4018,7 @@
         <v>307862546.78962725</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -4064,7 +4029,7 @@
         <v>1066681481.4814814</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -4072,7 +4037,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>525</v>
       </c>
@@ -4083,7 +4048,7 @@
         <v>160227273001.34827</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>199</v>
       </c>
@@ -4094,7 +4059,7 @@
         <v>6146374383733.3799</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>418</v>
       </c>
@@ -4105,7 +4070,7 @@
         <v>16502933121.080585</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>316</v>
       </c>
@@ -4113,7 +4078,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>171</v>
       </c>
@@ -4124,7 +4089,7 @@
         <v>4750000000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>402</v>
       </c>
@@ -4135,7 +4100,7 @@
         <v>46636278901.901581</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>370</v>
       </c>
@@ -4146,7 +4111,7 @@
         <v>2549062962.9629626</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>443</v>
       </c>
@@ -4157,7 +4122,7 @@
         <v>7313631690222.709</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>196</v>
       </c>
@@ -4168,7 +4133,7 @@
         <v>1574172751665.071</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>472</v>
       </c>
@@ -4179,7 +4144,7 @@
         <v>466541517790.09344</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>451</v>
       </c>
@@ -4187,7 +4152,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -4198,7 +4163,7 @@
         <v>98963185509.649948</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>262</v>
       </c>
@@ -4209,7 +4174,7 @@
         <v>7857490239272.0068</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>231</v>
       </c>
@@ -4220,7 +4185,7 @@
         <v>39216943108499.063</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>359</v>
       </c>
@@ -4231,7 +4196,7 @@
         <v>2271541845.6200151</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -4242,7 +4207,7 @@
         <v>29910723278948.734</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>301</v>
       </c>
@@ -4253,7 +4218,7 @@
         <v>84869215513.364822</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>210</v>
       </c>
@@ -4264,7 +4229,7 @@
         <v>93197329011.707794</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>192</v>
       </c>
@@ -4275,7 +4240,7 @@
         <v>43520773851.121864</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>422</v>
       </c>
@@ -4286,7 +4251,7 @@
         <v>50183212761.348351</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>285</v>
       </c>
@@ -4294,7 +4259,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>23</v>
       </c>
@@ -4305,7 +4270,7 @@
         <v>154430996472.75183</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>292</v>
       </c>
@@ -4313,7 +4278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>342</v>
       </c>
@@ -4324,7 +4289,7 @@
         <v>18200340853.651684</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>302</v>
       </c>
@@ -4335,7 +4300,7 @@
         <v>17420814800.704494</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -4346,7 +4311,7 @@
         <v>6975146349.4259214</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>426</v>
       </c>
@@ -4357,7 +4322,7 @@
         <v>5025772564328.2979</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -4368,7 +4333,7 @@
         <v>1852722885258.1101</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>514</v>
       </c>
@@ -4379,7 +4344,7 @@
         <v>280357844.22980201</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>323</v>
       </c>
@@ -4390,7 +4355,7 @@
         <v>38748293620690.352</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>88</v>
       </c>
@@ -4401,7 +4366,7 @@
         <v>16685236492.06752</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -4412,7 +4377,7 @@
         <v>26588067731.169247</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>286</v>
       </c>
@@ -4423,7 +4388,7 @@
         <v>24322006607.929516</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>305</v>
       </c>
@@ -4434,7 +4399,7 @@
         <v>74079772652.428574</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>479</v>
       </c>
@@ -4445,7 +4410,7 @@
         <v>2153572215659.7275</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>290</v>
       </c>
@@ -4456,7 +4421,7 @@
         <v>8069536125.802846</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>284</v>
       </c>
@@ -4467,7 +4432,7 @@
         <v>23586055802.451691</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>131</v>
       </c>
@@ -4475,7 +4440,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>444</v>
       </c>
@@ -4486,7 +4451,7 @@
         <v>22416650343.4786</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>40</v>
       </c>
@@ -4497,7 +4462,7 @@
         <v>10766731873.540733</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>34</v>
       </c>
@@ -4508,7 +4473,7 @@
         <v>14952555414.855322</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>393</v>
       </c>
@@ -4519,7 +4484,7 @@
         <v>11008925322.513369</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>320</v>
       </c>
@@ -4530,7 +4495,7 @@
         <v>421972102253.57031</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>158</v>
       </c>
@@ -4541,7 +4506,7 @@
         <v>31435123430970.34</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>111</v>
       </c>
@@ -4552,7 +4517,7 @@
         <v>13372354268.544609</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>524</v>
       </c>
@@ -4560,7 +4525,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>129</v>
       </c>
@@ -4571,7 +4536,7 @@
         <v>19537639288.06332</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>213</v>
       </c>
@@ -4582,7 +4547,7 @@
         <v>187759703099.80142</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>442</v>
       </c>
@@ -4593,7 +4558,7 @@
         <v>19693982967.592556</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -4604,7 +4569,7 @@
         <v>1227543925316.406</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>494</v>
       </c>
@@ -4615,7 +4580,7 @@
         <v>483727398216.36444</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>150</v>
       </c>
@@ -4626,7 +4591,7 @@
         <v>42914268286.710922</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>77</v>
       </c>
@@ -4637,7 +4602,7 @@
         <v>160350639.54946691</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>407</v>
       </c>
@@ -4648,7 +4613,7 @@
         <v>260235932558.99628</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>240</v>
       </c>
@@ -4659,7 +4624,7 @@
         <v>67687054565878.156</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>508</v>
       </c>
@@ -4670,7 +4635,7 @@
         <v>106942782834.85045</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>506</v>
       </c>
@@ -4681,7 +4646,7 @@
         <v>205790426259.97238</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>534</v>
       </c>
@@ -4692,7 +4657,7 @@
         <v>373071855731.5387</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>391</v>
       </c>
@@ -4703,7 +4668,7 @@
         <v>86260400000</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>353</v>
       </c>
@@ -4714,7 +4679,7 @@
         <v>289221969059.85333</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -4725,7 +4690,7 @@
         <v>461617509782.35455</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>493</v>
       </c>
@@ -4733,7 +4698,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>321</v>
       </c>
@@ -4744,7 +4709,7 @@
         <v>32538480023.999786</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>53</v>
       </c>
@@ -4755,7 +4720,7 @@
         <v>914696430325.39075</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -4766,7 +4731,7 @@
         <v>1426898998276.72</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -4777,7 +4742,7 @@
         <v>125841500000</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>379</v>
       </c>
@@ -4785,7 +4750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>306</v>
       </c>
@@ -4796,7 +4761,7 @@
         <v>308683317392.67963</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>352</v>
       </c>
@@ -4807,7 +4772,7 @@
         <v>44458118399.666885</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>62</v>
       </c>
@@ -4818,7 +4783,7 @@
         <v>13711100000</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>94</v>
       </c>
@@ -4829,7 +4794,7 @@
         <v>11977251413.716286</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>434</v>
       </c>
@@ -4840,7 +4805,7 @@
         <v>63040640005163.461</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>257</v>
       </c>
@@ -4848,7 +4813,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>450</v>
       </c>
@@ -4859,7 +4824,7 @@
         <v>217982967032.96701</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>401</v>
       </c>
@@ -4870,7 +4835,7 @@
         <v>382767571329.15796</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -4881,7 +4846,7 @@
         <v>2173835806671.656</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>190</v>
       </c>
@@ -4892,7 +4857,7 @@
         <v>14251642231.493185</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>65</v>
       </c>
@@ -4903,7 +4868,7 @@
         <v>4514924632400.2666</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>339</v>
       </c>
@@ -4914,7 +4879,7 @@
         <v>1237529866666.6667</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>161</v>
       </c>
@@ -4925,7 +4890,7 @@
         <v>49909807029.699585</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -4936,7 +4901,7 @@
         <v>32267254425.052044</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>364</v>
       </c>
@@ -4947,7 +4912,7 @@
         <v>547386645891.84668</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>74</v>
       </c>
@@ -4958,7 +4923,7 @@
         <v>1760767447.1746111</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>511</v>
       </c>
@@ -4969,7 +4934,7 @@
         <v>7547843281.2742462</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>417</v>
       </c>
@@ -4980,7 +4945,7 @@
         <v>35364960000</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>322</v>
       </c>
@@ -4988,7 +4953,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>389</v>
       </c>
@@ -4999,7 +4964,7 @@
         <v>12108515109.999598</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>226</v>
       </c>
@@ -5010,7 +4975,7 @@
         <v>89083506277.234421</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>42</v>
       </c>
@@ -5021,7 +4986,7 @@
         <v>1745534471319.0425</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>200</v>
       </c>
@@ -5029,7 +4994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -5040,7 +5005,7 @@
         <v>1957702634760.3494</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>28</v>
       </c>
@@ -5051,7 +5016,7 @@
         <v>309361541400.62939</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>175</v>
       </c>
@@ -5062,7 +5027,7 @@
         <v>764274042.73504281</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>368</v>
       </c>
@@ -5073,7 +5038,7 @@
         <v>4714267822.2233009</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>271</v>
       </c>
@@ -5084,7 +5049,7 @@
         <v>141775733420.11404</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>265</v>
       </c>
@@ -5095,7 +5060,7 @@
         <v>72485008929.27655</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>52</v>
       </c>
@@ -5106,7 +5071,7 @@
         <v>610117791237.08911</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>477</v>
       </c>
@@ -5117,7 +5082,7 @@
         <v>4891883720.1574173</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>259</v>
       </c>
@@ -5128,7 +5093,7 @@
         <v>1735210227.9258101</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>361</v>
       </c>
@@ -5139,7 +5104,7 @@
         <v>2167239562.4601293</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>128</v>
       </c>
@@ -5147,7 +5112,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>89</v>
       </c>
@@ -5158,7 +5123,7 @@
         <v>1745378000</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>446</v>
       </c>
@@ -5169,7 +5134,7 @@
         <v>20625711664.647213</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>516</v>
       </c>
@@ -5180,7 +5145,7 @@
         <v>22233410782170.809</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>347</v>
       </c>
@@ -5191,7 +5156,7 @@
         <v>6097876994310.8799</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>180</v>
       </c>
@@ -5202,7 +5167,7 @@
         <v>9925732119.7203388</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>404</v>
       </c>
@@ -5213,7 +5178,7 @@
         <v>526411265427.68256</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -5224,7 +5189,7 @@
         <v>14204575548.553579</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>378</v>
       </c>
@@ -5235,7 +5200,7 @@
         <v>64239891739.331139</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>105</v>
       </c>
@@ -5246,7 +5211,7 @@
         <v>6977493595927.0508</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>490</v>
       </c>
@@ -5257,7 +5222,7 @@
         <v>1881265333.4187</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>520</v>
       </c>
@@ -5268,7 +5233,7 @@
         <v>2139861115659.7273</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>470</v>
       </c>
@@ -5276,7 +5241,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -5287,7 +5252,7 @@
         <v>4514924632400.2666</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>166</v>
       </c>
@@ -5298,7 +5263,7 @@
         <v>1957702634760.3499</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>483</v>
       </c>
@@ -5309,7 +5274,7 @@
         <v>26428963758.130711</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>149</v>
       </c>
@@ -5320,7 +5285,7 @@
         <v>53409988744.596809</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>86</v>
       </c>
@@ -5331,7 +5296,7 @@
         <v>1323254808058.7441</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>313</v>
       </c>
@@ -5339,7 +5304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>414</v>
       </c>
@@ -5350,7 +5315,7 @@
         <v>78779864877.301834</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>505</v>
       </c>
@@ -5361,7 +5326,7 @@
         <v>53651874313.98362</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>311</v>
       </c>
@@ -5372,7 +5337,7 @@
         <v>190741263731.53488</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>118</v>
       </c>
@@ -5383,7 +5348,7 @@
         <v>30891808644564.391</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>385</v>
       </c>
@@ -5394,7 +5359,7 @@
         <v>80961511073.579651</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>287</v>
       </c>
@@ -5405,7 +5370,7 @@
         <v>29184890000000</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>222</v>
       </c>
@@ -5416,7 +5381,7 @@
         <v>114965293466.61102</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -5427,7 +5392,7 @@
         <v>1157207407.4074073</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>57</v>
       </c>
@@ -5435,7 +5400,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>232</v>
       </c>
@@ -5443,7 +5408,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>308</v>
       </c>
@@ -5451,7 +5416,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>281</v>
       </c>
@@ -5462,7 +5427,7 @@
         <v>476388230307.17523</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>460</v>
       </c>
@@ -5473,7 +5438,7 @@
         <v>1161251868.0349755</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>433</v>
       </c>
@@ -5484,7 +5449,7 @@
         <v>111326370011522.7</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>132</v>
       </c>
@@ -5495,7 +5460,7 @@
         <v>1068025243.6392901</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>312</v>
       </c>
@@ -5506,7 +5471,7 @@
         <v>11148602232.663</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>509</v>
       </c>
@@ -5514,7 +5479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>351</v>
       </c>
@@ -5525,7 +5490,7 @@
         <v>400260724226.06696</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -5536,7 +5501,7 @@
         <v>26325775287.022636</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>535</v>
       </c>
@@ -5557,42 +5522,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FDD8B2-0C58-4942-910C-71C30B6F7708}">
-  <dimension ref="A1:D60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6E82C3-0A20-4482-913C-41F5B516C197}">
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.7" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:4" ht="31.9" x14ac:dyDescent="1">
       <c r="A1" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="e" cm="1" vm="1">
         <f t="array" ref="A6">_xlfn._xlws.PY(0,1,country_gdp[[#Headers],[#Data]])</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="str" cm="1">
         <f t="array" ref="A9:D20">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
         <v/>
@@ -5607,7 +5570,7 @@
         <v>gdp</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5621,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5635,7 +5598,7 @@
         <v>1287676979450.7463</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5649,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5663,7 +5626,7 @@
         <v>670025655309.60327</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>4</v>
       </c>
@@ -5677,7 +5640,7 @@
         <v>80396942241.62326</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <v>...</v>
       </c>
@@ -5691,7 +5654,7 @@
         <v>...</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>261</v>
       </c>
@@ -5705,7 +5668,7 @@
         <v>11148602232.663</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>262</v>
       </c>
@@ -5719,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>263</v>
       </c>
@@ -5733,7 +5696,7 @@
         <v>400260724226.06696</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>264</v>
       </c>
@@ -5747,7 +5710,7 @@
         <v>26325775287.022636</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>265</v>
       </c>
@@ -5761,23 +5724,23 @@
         <v>44187704410.119118</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="e" cm="1" vm="3">
         <f t="array" ref="A24">_xlfn._xlws.PY(1,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="str" cm="1">
         <f t="array" ref="A27:B36">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
         <v>gdp</v>
@@ -5786,7 +5749,7 @@
         <v>count</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <v>1</v>
       </c>
@@ -5794,7 +5757,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <v>2</v>
       </c>
@@ -5802,7 +5765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <v>3</v>
       </c>
@@ -5810,7 +5773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
         <v>4</v>
       </c>
@@ -5818,7 +5781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <v>5</v>
       </c>
@@ -5826,7 +5789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <v>6</v>
       </c>
@@ -5834,7 +5797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <v>7</v>
       </c>
@@ -5842,7 +5805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <v>8</v>
       </c>
@@ -5850,7 +5813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <v>9</v>
       </c>
@@ -5858,26 +5821,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.350000000000001" x14ac:dyDescent="0.65">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="e" cm="1" vm="4">
         <f t="array" ref="A40">_xlfn._xlws.PY(2,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.350000000000001" x14ac:dyDescent="0.65">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="e" cm="1" vm="5">
         <f t="array" ref="A60">_xlfn._xlws.PY(3,1)</f>
         <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A62" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" cm="1">
+        <f t="array" ref="A63:A64">IFERROR(_FV(A60,"arrayPreview"),_xlfn._DF_Python_str(A60))</f>
+        <v>11.437883812045229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>0.17810061147072773</v>
       </c>
     </row>
   </sheetData>
